--- a/EasyExcelGenerator/docs/Invoice_Template.xlsx
+++ b/EasyExcelGenerator/docs/Invoice_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnPC\Documents\GitHub\FastExcelGenerate\FastExcelGenerate\bin\Debug\net8.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnPC\Documents\GitHub\EasyExcelGenerator\EasyExcelGenerator\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$14</definedName>
   </definedNames>
@@ -237,15 +240,15 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,7 +339,630 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Monthly Product Sales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Product A</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49FE-41FA-85D5-A275421F9A00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Product B</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49FE-41FA-85D5-A275421F9A00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Product C</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-49FE-41FA-85D5-A275421F9A00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Product D</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-49FE-41FA-85D5-A275421F9A00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales (in $)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -366,6 +992,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -395,7 +1022,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{00000000-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -412,7 +1039,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{00000002-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -429,7 +1056,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{00000004-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -446,7 +1073,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{00000006-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -477,9 +1104,15 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{00000000-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -509,9 +1142,15 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{00000002-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -541,9 +1180,15 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{00000004-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -573,9 +1218,15 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{00000006-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -615,9 +1266,32 @@
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Product A Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Product B Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Product C Sales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Product D Sales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>0</c:f>
+              <c:f>[1]Sheet1!$C$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -658,38 +1332,8 @@
                 </c15:tx>
               </c15:filteredSeriesTitle>
             </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Product A Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Product B Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Product C Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Product D Sales</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+              <c16:uniqueId val="{00000007-CCBA-4CF2-A71F-17129F476966}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -717,7 +1361,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{00000009-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -734,7 +1378,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{0000000B-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -751,7 +1395,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{0000000D-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -768,7 +1412,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{0000000F-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -801,7 +1445,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{00000009-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -833,7 +1477,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{0000000B-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -865,7 +1509,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{0000000D-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -897,7 +1541,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{0000000F-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -937,6 +1581,29 @@
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Product A Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Product B Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Product C Sales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Product D Sales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>1</c:f>
@@ -971,38 +1638,8 @@
                 </c15:tx>
               </c15:filteredSeriesTitle>
             </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Product A Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Product B Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Product C Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Product D Sales</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+              <c16:uniqueId val="{00000010-CCBA-4CF2-A71F-17129F476966}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1030,7 +1667,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{00000012-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1047,7 +1684,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{00000014-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1064,7 +1701,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{00000016-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1081,7 +1718,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{00000018-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1114,7 +1751,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{00000012-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1146,7 +1783,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{00000014-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1178,7 +1815,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{00000016-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1210,7 +1847,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{00000018-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1250,6 +1887,29 @@
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Product A Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Product B Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Product C Sales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Product D Sales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>2</c:f>
@@ -1284,38 +1944,8 @@
                 </c15:tx>
               </c15:filteredSeriesTitle>
             </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Product A Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Product B Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Product C Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Product D Sales</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+              <c16:uniqueId val="{00000019-CCBA-4CF2-A71F-17129F476966}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1343,7 +1973,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{0000001B-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1360,7 +1990,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{0000001D-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1377,7 +2007,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000020-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{0000001F-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1394,7 +2024,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                <c16:uniqueId val="{00000021-CCBA-4CF2-A71F-17129F476966}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1427,7 +2057,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{0000001B-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1459,7 +2089,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{0000001D-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1491,7 +2121,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{0000001F-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1523,7 +2153,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+                  <c16:uniqueId val="{00000021-CCBA-4CF2-A71F-17129F476966}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1563,6 +2193,29 @@
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Product A Sales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Product B Sales</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Product C Sales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Product D Sales</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>3</c:f>
@@ -1597,38 +2250,8 @@
                 </c15:tx>
               </c15:filteredSeriesTitle>
             </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Product A Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Product B Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Product C Sales</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Product D Sales</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-9E5C-4F00-9E0C-1C31052B6E9F}"/>
+              <c16:uniqueId val="{00000022-CCBA-4CF2-A71F-17129F476966}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1652,6 +2275,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1699,1005 +2323,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:rPr>
-              <a:t>Monthly Product Sales</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>label 0</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Product A Sales</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>January</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>February</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>March</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>April</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>May</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>June</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>July</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>August</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>September</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>October</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>November</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>December</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F54B-4B2E-ADCE-1C171AEC215F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C0504D"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2350</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>label 1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Product B Sales</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>January</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>February</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>March</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>April</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>May</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>June</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>July</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>August</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>September</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>October</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>November</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>December</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F54B-4B2E-ADCE-1C171AEC215F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9BBB59"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>label 2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Product C Sales</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>January</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>February</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>March</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>April</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>May</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>June</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>July</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>August</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>September</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>October</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>November</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>December</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F54B-4B2E-ADCE-1C171AEC215F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="8064A2"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>label 3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Product D Sales</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>January</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>February</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>March</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>April</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>May</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>June</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>July</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>August</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>September</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>October</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>November</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>December</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F54B-4B2E-ADCE-1C171AEC215F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="27312275"/>
-        <c:axId val="41353713"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="27312275"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:rPr>
-                  <a:t>Month</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41353713"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="41353713"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:rPr>
-                  <a:t>Sales (in $)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="27312275"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2727,6 +2365,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2744,6 +2383,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product A Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="47520">
               <a:solidFill>
@@ -2786,7 +2436,6 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -2794,14 +2443,58 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>0</c:f>
+              <c:f>[1]Sheet1!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1200</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1300</c:v>
@@ -2832,92 +2525,34 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>label 0</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Product A</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>Month</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>January</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>February</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>March</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>April</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>May</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>June</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>July</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>August</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>September</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>October</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B89A-48F1-B1B4-941EFFD50644}"/>
+              <c16:uniqueId val="{00000000-23F3-4076-B051-452A62327D85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product A Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="47520">
               <a:solidFill>
@@ -2960,7 +2595,6 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -2968,14 +2602,58 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>1</c:f>
+              <c:f>[1]Sheet1!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2300</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2400</c:v>
@@ -3006,92 +2684,34 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>label 1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Product B</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>Month</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>January</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>February</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>March</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>April</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>May</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>June</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>July</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>August</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>September</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>October</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B89A-48F1-B1B4-941EFFD50644}"/>
+              <c16:uniqueId val="{00000001-23F3-4076-B051-452A62327D85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product C Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="47520">
               <a:solidFill>
@@ -3134,7 +2754,6 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -3142,14 +2761,58 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>2</c:f>
+              <c:f>[1]Sheet1!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1600</c:v>
@@ -3180,92 +2843,34 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>label 2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Product C</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>Month</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>January</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>February</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>March</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>April</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>May</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>June</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>July</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>August</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>September</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>October</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B89A-48F1-B1B4-941EFFD50644}"/>
+              <c16:uniqueId val="{00000002-23F3-4076-B051-452A62327D85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product D Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="47520">
               <a:solidFill>
@@ -3308,7 +2913,6 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -3316,14 +2920,58 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>3</c:f>
+              <c:f>[1]Sheet1!$F$3:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1800</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1900</c:v>
@@ -3354,86 +3002,17 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>label 3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Product D</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>categories</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>Month</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>January</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>February</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>March</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>April</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>May</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>June</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>July</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>August</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>September</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>October</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B89A-48F1-B1B4-941EFFD50644}"/>
+              <c16:uniqueId val="{00000003-23F3-4076-B051-452A62327D85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3491,6 +3070,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3579,6 +3159,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3628,6 +3209,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3677,23 +3259,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>136440</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>527760</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="PieChart"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="BarChart"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3710,20 +3294,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>145800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1077480</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511260</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="BarChart"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="6" name="PieChart"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3740,20 +3326,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>667080</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1047960</xdr:colOff>
+      <xdr:colOff>1028370</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>131399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="LineChart"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="7" name="LineChart"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3768,6 +3356,241 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Product A Sales</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Product B Sales</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Product C Sales</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>Product D Sales</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Total Sales</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>January</v>
+          </cell>
+          <cell r="C3">
+            <v>5000</v>
+          </cell>
+          <cell r="D3">
+            <v>5000</v>
+          </cell>
+          <cell r="E3">
+            <v>5000</v>
+          </cell>
+          <cell r="F3">
+            <v>5000</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>February</v>
+          </cell>
+          <cell r="C4">
+            <v>1300</v>
+          </cell>
+          <cell r="D4">
+            <v>2400</v>
+          </cell>
+          <cell r="E4">
+            <v>1600</v>
+          </cell>
+          <cell r="F4">
+            <v>1900</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>March</v>
+          </cell>
+          <cell r="C5">
+            <v>1250</v>
+          </cell>
+          <cell r="D5">
+            <v>2350</v>
+          </cell>
+          <cell r="E5">
+            <v>1550</v>
+          </cell>
+          <cell r="F5">
+            <v>1850</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>April</v>
+          </cell>
+          <cell r="C6">
+            <v>1400</v>
+          </cell>
+          <cell r="D6">
+            <v>2500</v>
+          </cell>
+          <cell r="E6">
+            <v>1700</v>
+          </cell>
+          <cell r="F6">
+            <v>2000</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>May</v>
+          </cell>
+          <cell r="C7">
+            <v>1500</v>
+          </cell>
+          <cell r="D7">
+            <v>2600</v>
+          </cell>
+          <cell r="E7">
+            <v>1800</v>
+          </cell>
+          <cell r="F7">
+            <v>2100</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>June</v>
+          </cell>
+          <cell r="C8">
+            <v>1600</v>
+          </cell>
+          <cell r="D8">
+            <v>2700</v>
+          </cell>
+          <cell r="E8">
+            <v>1900</v>
+          </cell>
+          <cell r="F8">
+            <v>2200</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>July</v>
+          </cell>
+          <cell r="C9">
+            <v>1700</v>
+          </cell>
+          <cell r="D9">
+            <v>2800</v>
+          </cell>
+          <cell r="E9">
+            <v>2000</v>
+          </cell>
+          <cell r="F9">
+            <v>2300</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>August</v>
+          </cell>
+          <cell r="C10">
+            <v>1800</v>
+          </cell>
+          <cell r="D10">
+            <v>2900</v>
+          </cell>
+          <cell r="E10">
+            <v>2100</v>
+          </cell>
+          <cell r="F10">
+            <v>2400</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>September</v>
+          </cell>
+          <cell r="C11">
+            <v>1900</v>
+          </cell>
+          <cell r="D11">
+            <v>3000</v>
+          </cell>
+          <cell r="E11">
+            <v>2200</v>
+          </cell>
+          <cell r="F11">
+            <v>2500</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>October</v>
+          </cell>
+          <cell r="C12">
+            <v>2000</v>
+          </cell>
+          <cell r="D12">
+            <v>3100</v>
+          </cell>
+          <cell r="E12">
+            <v>2300</v>
+          </cell>
+          <cell r="F12">
+            <v>2600</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>November</v>
+          </cell>
+          <cell r="C13">
+            <v>2100</v>
+          </cell>
+          <cell r="D13">
+            <v>3200</v>
+          </cell>
+          <cell r="E13">
+            <v>2400</v>
+          </cell>
+          <cell r="F13">
+            <v>2700</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>December</v>
+          </cell>
+          <cell r="C14">
+            <v>2200</v>
+          </cell>
+          <cell r="D14">
+            <v>3300</v>
+          </cell>
+          <cell r="E14">
+            <v>2500</v>
+          </cell>
+          <cell r="F14">
+            <v>2800</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3882,8 +3705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3899,19 +3722,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="35.85" customHeight="1">
-      <c r="A2" s="15"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3930,10 +3753,10 @@
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3952,10 +3775,10 @@
       <c r="G3" s="8">
         <v>6800</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -3974,10 +3797,10 @@
       <c r="G4" s="9">
         <v>7200</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -3996,10 +3819,10 @@
       <c r="G5" s="8">
         <v>7000</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="19.350000000000001" customHeight="1">
-      <c r="A6" s="15"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -4018,10 +3841,10 @@
       <c r="G6" s="9">
         <v>7600</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4040,10 +3863,10 @@
       <c r="G7" s="8">
         <v>8000</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="15"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -4062,10 +3885,10 @@
       <c r="G8" s="9">
         <v>8400</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="15"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -4084,10 +3907,10 @@
       <c r="G9" s="8">
         <v>8800</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="15"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
@@ -4106,10 +3929,10 @@
       <c r="G10" s="9">
         <v>9200</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="15"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4128,10 +3951,10 @@
       <c r="G11" s="8">
         <v>9600</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="15"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
@@ -4150,10 +3973,10 @@
       <c r="G12" s="9">
         <v>10000</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="15"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -4172,10 +3995,10 @@
       <c r="G13" s="8">
         <v>10400</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="15"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -4194,427 +4017,427 @@
       <c r="G14" s="9">
         <v>10800</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="17"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="17"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="17"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="15"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="17"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="17"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="17"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="17"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="15"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="17"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="15"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="17"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="15"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="17"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="15"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="17"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="15"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="17"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="15"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="17"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="15"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="17"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="15"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="17"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="15"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="17"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="15"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="17"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="15"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="17"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="15"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="17"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="15"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="17"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="15"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="17"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="17"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="17"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="15"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="17"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="15"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="17"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="15"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="17"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="15"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="17"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="15"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="17"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="15"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="17"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="15"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="17"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="15"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="17"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="15"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="17"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="15"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="17"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="15"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="17"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="15"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="17"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="15"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="17"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="15"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="17"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="15"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="17"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="15"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="17"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="15"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="17"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="11"/>
